--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5535168195718655</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945054945054945</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006802721088435374</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.5531914893617021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7111984282907662</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4832826747720365</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1486413627962872</v>
+        <v>0.1172411921837956</v>
       </c>
       <c r="J2" t="n">
-        <v>2018.347508870171</v>
+        <v>1536.067329988439</v>
       </c>
       <c r="K2" t="n">
-        <v>6034571.10636468</v>
+        <v>3094190.233086395</v>
       </c>
       <c r="L2" t="n">
-        <v>2456.536404445226</v>
+        <v>1759.031049494691</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1346314940892559</v>
+        <v>0.4182244893161696</v>
       </c>
     </row>
   </sheetData>
